--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D6487A-63EE-9E40-8ECA-4DFB330F79FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5101922B-F6DF-D446-8919-11CDC97C6819}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,12 +332,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -350,12 +368,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -372,18 +384,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -851,8 +851,8 @@
   </sheetPr>
   <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44:K44"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -871,50 +871,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="27"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="28"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32"/>
-    </row>
-    <row r="4" spans="2:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="33" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="36"/>
+    </row>
+    <row r="4" spans="2:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="B4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="36"/>
-    </row>
-    <row r="5" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="25"/>
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -928,21 +928,21 @@
       <c r="J5" s="17"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="19" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
-    </row>
-    <row r="7" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
+    </row>
+    <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -953,22 +953,22 @@
       <c r="G7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="22"/>
-    </row>
-    <row r="8" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
+    </row>
+    <row r="8" spans="2:11" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
       <c r="J8" s="14" t="s">
         <v>13</v>
       </c>
@@ -991,64 +991,64 @@
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="2:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="2:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="B11" s="30"/>
       <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="2:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="22"/>
+    </row>
+    <row r="14" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>18</v>
       </c>
@@ -1064,7 +1064,7 @@
       <c r="J14" s="17"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -1078,11 +1078,11 @@
       <c r="J15" s="17"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="25" t="s">
+    <row r="16" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="B16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -1092,7 +1092,7 @@
       <c r="J16" s="17"/>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>17</v>
       </c>
@@ -1207,50 +1207,50 @@
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="27"/>
-      <c r="C29" s="29" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="34"/>
     </row>
     <row r="30" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="28"/>
-      <c r="C30" s="31" t="s">
+      <c r="B30" s="32"/>
+      <c r="C30" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="32"/>
-    </row>
-    <row r="31" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="33" t="s">
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="36"/>
+    </row>
+    <row r="31" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="B31" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="35" t="s">
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="35"/>
-      <c r="K31" s="36"/>
-    </row>
-    <row r="32" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J31" s="25"/>
+      <c r="K31" s="26"/>
+    </row>
+    <row r="32" spans="1:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>1</v>
       </c>
@@ -1264,19 +1264,19 @@
       <c r="J32" s="17"/>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" ht="19" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="22"/>
     </row>
     <row r="34" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
@@ -1289,28 +1289,28 @@
       <c r="G34" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="22"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="28"/>
     </row>
     <row r="35" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
       <c r="J35" s="14" t="s">
         <v>13</v>
       </c>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>14</v>
       </c>
@@ -1327,64 +1327,64 @@
       <c r="K36" s="18"/>
     </row>
     <row r="37" spans="2:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="22"/>
     </row>
     <row r="38" spans="2:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="B38" s="24"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="20"/>
-    </row>
-    <row r="39" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="25" t="s">
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="22"/>
+    </row>
+    <row r="39" spans="2:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="B39" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="20"/>
-    </row>
-    <row r="40" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="25" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="22"/>
+    </row>
+    <row r="40" spans="2:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="B40" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="20"/>
-    </row>
-    <row r="41" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="22"/>
+    </row>
+    <row r="41" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
         <v>18</v>
       </c>
@@ -1400,7 +1400,7 @@
       <c r="J41" s="17"/>
       <c r="K41" s="18"/>
     </row>
-    <row r="42" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B42" s="9" t="s">
         <v>16</v>
       </c>
@@ -1414,11 +1414,11 @@
       <c r="J42" s="17"/>
       <c r="K42" s="18"/>
     </row>
-    <row r="43" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="25" t="s">
+    <row r="43" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="B43" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="26"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
@@ -1428,7 +1428,7 @@
       <c r="J43" s="17"/>
       <c r="K43" s="18"/>
     </row>
-    <row r="44" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B44" s="9" t="s">
         <v>17</v>
       </c>
@@ -1456,13 +1456,33 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:K40"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:K43"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="E39:K39"/>
     <mergeCell ref="B31:H31"/>
@@ -1477,33 +1497,13 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="D37:K37"/>
     <mergeCell ref="D38:K38"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:K40"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:K43"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
